--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1105.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1105.xlsx
@@ -357,7 +357,7 @@
         <v>1.942832406413797</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.974138968529004</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1105.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1105.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6925816424378406</v>
+        <v>1.175718784332275</v>
       </c>
       <c r="B1">
-        <v>0.9961767827160233</v>
+        <v>2.407128810882568</v>
       </c>
       <c r="C1">
-        <v>1.942832406413797</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.344990015029907</v>
       </c>
       <c r="E1">
-        <v>1.974138968529004</v>
+        <v>1.206812858581543</v>
       </c>
     </row>
   </sheetData>
